--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan\OneDrive\Desktop\CSU-P\Course_9_Fall_2020_Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan\OneDrive\Desktop\GitHub\home_healthcare_routing_problem_HHCRP_maximize_patients_visits_an_algorithm_from_literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{937D8883-D3C2-42B6-A1BB-7712C551F0EE}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AD12548-6563-4AAA-AA20-FE7EE70BF019}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients" sheetId="2" r:id="rId1"/>
@@ -1989,15 +1989,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4C114A-6A41-4CC7-AB93-9F9B8A838C04}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -2033,13 +2033,23 @@
       <c r="C2" s="13">
         <v>25</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2059,13 +2069,13 @@
         <v>30</v>
       </c>
       <c r="G3" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -2085,13 +2095,13 @@
         <v>30</v>
       </c>
       <c r="G4" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -2117,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -2142,8 +2152,9 @@
       <c r="H6" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -2169,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -2215,13 +2226,13 @@
         <v>30</v>
       </c>
       <c r="G9" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -2272,8 +2283,9 @@
       <c r="H11" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -2298,8 +2310,9 @@
       <c r="H12" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -2325,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -2345,13 +2358,13 @@
         <v>30</v>
       </c>
       <c r="G14" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -2376,8 +2389,9 @@
       <c r="H15" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -2402,6 +2416,7 @@
       <c r="H16" s="23">
         <v>2</v>
       </c>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
@@ -2438,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDB280-3E20-41F6-A2DA-85E3F73204FC}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan\OneDrive\Desktop\GitHub\home_healthcare_routing_problem_HHCRP_maximize_patients_visits_an_algorithm_from_literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan\OneDrive\Desktop\GitHub\HHCRP_new_problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AD12548-6563-4AAA-AA20-FE7EE70BF019}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA632105-9BD5-402C-8A72-984552DA6A82}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Nodes</t>
   </si>
@@ -164,6 +164,15 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>nN</t>
+  </si>
+  <si>
+    <t>Q'2</t>
+  </si>
+  <si>
+    <t>Q'3</t>
+  </si>
 </sst>
 </file>
 
@@ -627,10 +636,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,15 +1998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4C114A-6A41-4CC7-AB93-9F9B8A838C04}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -2020,428 +2029,581 @@
         <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>25</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>25</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>15</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>28</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>107</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>196</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>30</v>
       </c>
-      <c r="G3" s="19">
-        <v>2</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="G3" s="16">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="21">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="21">
         <v>4</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>5</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <v>82</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="21">
         <v>30</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21">
         <v>2</v>
       </c>
-      <c r="H4" s="23">
+      <c r="I4" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="21">
         <v>46</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="21">
         <v>18</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>39</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <v>123</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="21">
         <v>30</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="21">
         <v>36</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="21">
         <v>11</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>112</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>199</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="21">
         <v>30</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
         <v>2</v>
       </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="21">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="21">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="21">
         <v>68</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <v>143</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="21">
         <v>30</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="21">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="21">
         <v>49</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <v>84</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <v>162</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="21">
         <v>30</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="21">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="21">
         <v>36</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="21">
         <v>26</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="21">
         <v>89</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <v>167</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="21">
         <v>30</v>
       </c>
-      <c r="G9" s="22">
-        <v>2</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="21">
         <v>49</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="21">
         <v>39</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="21">
         <v>2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>79</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="21">
         <v>30</v>
       </c>
-      <c r="G10" s="22">
-        <v>3</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="21">
         <v>20</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="21">
         <v>13</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <v>75</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="21">
         <v>30</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>2</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
         <v>2</v>
       </c>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="21">
         <v>44</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="21">
         <v>31</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="21">
         <v>96</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <v>178</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="21">
         <v>30</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
         <v>2</v>
       </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="21">
         <v>47</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="21">
         <v>49</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>136</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <v>218</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="21">
         <v>30</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="21">
         <v>49</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="21">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="21">
         <v>4</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <v>79</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="21">
         <v>30</v>
       </c>
-      <c r="G14" s="22">
-        <v>2</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="21">
+        <v>3</v>
+      </c>
+      <c r="H14" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="21">
         <v>28</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="21">
         <v>45</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <v>46</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>114</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="21">
         <v>30</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="21">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="21">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="21">
         <v>49</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <v>28</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>107</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="21">
         <v>30</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
         <v>2</v>
       </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>29</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>20</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <v>146</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <v>207</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>30</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="26">
         <v>3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="26">
         <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2616,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3021,10 +3183,10 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <f>SUM(C2:C4)</f>
         <v>2100</v>
@@ -5049,25 +5211,25 @@
       <c r="H19" s="23">
         <v>1</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
@@ -5094,25 +5256,25 @@
       <c r="H20" s="23">
         <v>1</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -5139,25 +5301,25 @@
       <c r="H21" s="23">
         <v>2</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
@@ -5184,25 +5346,25 @@
       <c r="H22" s="23">
         <v>2</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
     </row>
     <row r="23" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
@@ -5229,167 +5391,167 @@
       <c r="H23" s="30">
         <v>1</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
-      <c r="J29" s="37" t="s">
+      <c r="J29" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="7">
         <f>SUM(G9:G23)</f>
         <v>40</v>
@@ -5403,25 +5565,25 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
       <c r="AA30" s="7">
         <f>AVERAGE(AH2:AW17)</f>
         <v>27.040314457323575</v>
@@ -5432,25 +5594,25 @@
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
       <c r="AA31" s="7">
         <f>AVERAGE(F9:F23)</f>
         <v>30</v>
@@ -5461,25 +5623,25 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
       <c r="AA32" s="7">
         <f>AA29*(AA30+AA31)</f>
         <v>2281.612578292943</v>
@@ -5490,25 +5652,25 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
       <c r="AA33" s="7">
         <f>C5</f>
         <v>2100</v>
@@ -5582,22 +5744,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J29:Z29"/>
-    <mergeCell ref="J30:Z30"/>
-    <mergeCell ref="J31:Z31"/>
-    <mergeCell ref="J32:Z32"/>
-    <mergeCell ref="J33:Z33"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="J22:Z22"/>
     <mergeCell ref="J23:Z23"/>
     <mergeCell ref="J24:Z24"/>
     <mergeCell ref="J26:Z26"/>
     <mergeCell ref="J27:Z27"/>
     <mergeCell ref="J28:Z28"/>
     <mergeCell ref="J25:Z25"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J29:Z29"/>
+    <mergeCell ref="J30:Z30"/>
+    <mergeCell ref="J31:Z31"/>
+    <mergeCell ref="J32:Z32"/>
+    <mergeCell ref="J33:Z33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan\OneDrive\Desktop\GitHub\HHCRP_new_problem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d692ea27fa2d9a61/Desktop/GitHub/HHCRP_new_problem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA632105-9BD5-402C-8A72-984552DA6A82}"/>
+  <xr:revisionPtr revIDLastSave="676" documentId="11_F25DC773A252ABDACC10485B01D9520A5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C23C422-7DEE-4A98-ACE2-6368F9F20AB6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients" sheetId="2" r:id="rId1"/>
-    <sheet name="nurses" sheetId="3" r:id="rId2"/>
-    <sheet name="15N" sheetId="1" r:id="rId3"/>
+    <sheet name="patients (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="nurses" sheetId="3" r:id="rId3"/>
+    <sheet name="15N" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Nodes</t>
   </si>
@@ -528,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,9 +637,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2000,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4C114A-6A41-4CC7-AB93-9F9B8A838C04}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2099,13 +2112,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="16">
         <v>1</v>
       </c>
       <c r="J3" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="16">
         <v>0</v>
@@ -2134,13 +2147,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="21">
         <v>1</v>
       </c>
       <c r="J4" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -2612,6 +2625,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F29042D-745D-4AC5-8B4E-A2E456615799}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="38">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>25</v>
+      </c>
+      <c r="C2" s="38">
+        <v>25</v>
+      </c>
+      <c r="D2" s="38">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0</v>
+      </c>
+      <c r="J2" s="38">
+        <v>0</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7">
+        <v>107</v>
+      </c>
+      <c r="E3" s="7">
+        <v>196</v>
+      </c>
+      <c r="F3" s="7">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7">
+        <v>123</v>
+      </c>
+      <c r="F5" s="7">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>112</v>
+      </c>
+      <c r="E6" s="7">
+        <v>199</v>
+      </c>
+      <c r="F6" s="7">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7">
+        <v>167</v>
+      </c>
+      <c r="F9" s="7">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7">
+        <v>178</v>
+      </c>
+      <c r="F12" s="7">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <v>136</v>
+      </c>
+      <c r="E13" s="7">
+        <v>218</v>
+      </c>
+      <c r="F13" s="7">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7">
+        <v>114</v>
+      </c>
+      <c r="F15" s="7">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7">
+        <v>146</v>
+      </c>
+      <c r="E17" s="7">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>217</v>
+      </c>
+      <c r="F18" s="7">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7">
+        <v>195</v>
+      </c>
+      <c r="F19" s="7">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>122</v>
+      </c>
+      <c r="E21" s="7">
+        <v>95</v>
+      </c>
+      <c r="F21" s="7">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>106</v>
+      </c>
+      <c r="E22" s="7">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7">
+        <v>30</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
+        <v>37</v>
+      </c>
+      <c r="E23" s="7">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
+        <v>191</v>
+      </c>
+      <c r="F24" s="7">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>86</v>
+      </c>
+      <c r="E25" s="7">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7">
+        <v>30</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7">
+        <v>98</v>
+      </c>
+      <c r="E26" s="7">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7">
+        <v>30</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7">
+        <v>94</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>49</v>
+      </c>
+      <c r="C28" s="7">
+        <v>48</v>
+      </c>
+      <c r="D28" s="7">
+        <v>57</v>
+      </c>
+      <c r="E28" s="7">
+        <v>127</v>
+      </c>
+      <c r="F28" s="7">
+        <v>30</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7">
+        <v>216</v>
+      </c>
+      <c r="F29" s="7">
+        <v>30</v>
+      </c>
+      <c r="G29" s="7">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7">
+        <v>186</v>
+      </c>
+      <c r="F31" s="7">
+        <v>30</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7">
+        <v>102</v>
+      </c>
+      <c r="E32" s="7">
+        <v>111</v>
+      </c>
+      <c r="F32" s="7">
+        <v>30</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDB280-3E20-41F6-A2DA-85E3F73204FC}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2675,7 +3829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW44"/>
   <sheetViews>
@@ -3183,10 +4337,10 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <f>SUM(C2:C4)</f>
         <v>2100</v>
@@ -5211,25 +6365,25 @@
       <c r="H19" s="23">
         <v>1</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
@@ -5256,25 +6410,25 @@
       <c r="H20" s="23">
         <v>1</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -5301,25 +6455,25 @@
       <c r="H21" s="23">
         <v>2</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
@@ -5346,25 +6500,25 @@
       <c r="H22" s="23">
         <v>2</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
     </row>
     <row r="23" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
@@ -5391,167 +6545,167 @@
       <c r="H23" s="30">
         <v>1</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
       <c r="AA29" s="7">
         <f>SUM(G9:G23)</f>
         <v>40</v>
@@ -5565,25 +6719,25 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="7">
         <f>AVERAGE(AH2:AW17)</f>
         <v>27.040314457323575</v>
@@ -5594,25 +6748,25 @@
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="7">
         <f>AVERAGE(F9:F23)</f>
         <v>30</v>
@@ -5623,25 +6777,25 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
       <c r="AA32" s="7">
         <f>AA29*(AA30+AA31)</f>
         <v>2281.612578292943</v>
@@ -5652,25 +6806,25 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
       <c r="AA33" s="7">
         <f>C5</f>
         <v>2100</v>
@@ -5744,22 +6898,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J29:Z29"/>
+    <mergeCell ref="J30:Z30"/>
+    <mergeCell ref="J31:Z31"/>
+    <mergeCell ref="J32:Z32"/>
+    <mergeCell ref="J33:Z33"/>
     <mergeCell ref="J23:Z23"/>
     <mergeCell ref="J24:Z24"/>
     <mergeCell ref="J26:Z26"/>
     <mergeCell ref="J27:Z27"/>
     <mergeCell ref="J28:Z28"/>
     <mergeCell ref="J25:Z25"/>
-    <mergeCell ref="J29:Z29"/>
-    <mergeCell ref="J30:Z30"/>
-    <mergeCell ref="J31:Z31"/>
-    <mergeCell ref="J32:Z32"/>
-    <mergeCell ref="J33:Z33"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="J22:Z22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
